--- a/REGULAR/PELLO, EMILMA.xlsx
+++ b/REGULAR/PELLO, EMILMA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02D0669-611E-4462-8022-8E23E3A607A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
   <si>
     <t>PERIOD</t>
   </si>
@@ -349,11 +342,14 @@
   <si>
     <t>9/16,20</t>
   </si>
+  <si>
+    <t>2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -584,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -720,6 +716,18 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,16 +764,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,7 +1215,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1258,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1323,7 +1322,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1382,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1448,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1512,7 +1511,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1610,7 +1609,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1669,7 +1668,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1733,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1777,7 +1776,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1852,7 +1851,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2038,7 +2037,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,7 +2103,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2162,7 +2161,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2228,7 +2227,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2283,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2359,7 +2358,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2402,7 +2401,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2468,7 +2467,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2524,7 +2523,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2621,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2684,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2751,25 +2750,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K324" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K391" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2781,13 +2780,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2796,14 +2795,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3107,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3125,16 +3124,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K324"/>
+  <dimension ref="A2:K391"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A308" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D321" sqref="D321"/>
+      <pane ySplit="3576" topLeftCell="A314" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="E9:I9"/>
+      <selection pane="bottomLeft" activeCell="D314" sqref="D314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3156,58 +3155,58 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3233,18 +3232,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3291,7 +3290,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>178.559</v>
+        <v>219.809</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3301,13 +3300,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>353.75</v>
+        <v>410</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="20"/>
@@ -3573,7 +3572,7 @@
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B23" s="20"/>
@@ -3839,7 +3838,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="s">
+      <c r="A36" s="47" t="s">
         <v>46</v>
       </c>
       <c r="B36" s="20"/>
@@ -4111,7 +4110,7 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="47" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="20"/>
@@ -4379,7 +4378,7 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="59" t="s">
+      <c r="A62" s="47" t="s">
         <v>51</v>
       </c>
       <c r="B62" s="20"/>
@@ -4645,7 +4644,7 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="59" t="s">
+      <c r="A75" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B75" s="20"/>
@@ -4911,7 +4910,7 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="59" t="s">
+      <c r="A88" s="47" t="s">
         <v>53</v>
       </c>
       <c r="B88" s="20"/>
@@ -5179,7 +5178,7 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="47" t="s">
         <v>54</v>
       </c>
       <c r="B101" s="20"/>
@@ -5445,26 +5444,26 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="59" t="s">
+      <c r="A114" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B114" s="60"/>
+      <c r="B114" s="48"/>
       <c r="C114" s="13"/>
-      <c r="D114" s="61"/>
-      <c r="E114" s="62" t="s">
+      <c r="D114" s="49"/>
+      <c r="E114" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="F114" s="60"/>
+      <c r="F114" s="48"/>
       <c r="G114" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H114" s="61"/>
-      <c r="I114" s="62" t="s">
+      <c r="H114" s="49"/>
+      <c r="I114" s="50" t="s">
         <v>32</v>
       </c>
       <c r="J114" s="2"/>
-      <c r="K114" s="60"/>
+      <c r="K114" s="48"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
@@ -5717,7 +5716,7 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="59" t="s">
+      <c r="A127" s="47" t="s">
         <v>59</v>
       </c>
       <c r="B127" s="20"/>
@@ -6031,7 +6030,7 @@
       <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="59" t="s">
+      <c r="A140" s="47" t="s">
         <v>60</v>
       </c>
       <c r="B140" s="20"/>
@@ -6297,7 +6296,7 @@
       <c r="K152" s="20"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A153" s="59" t="s">
+      <c r="A153" s="47" t="s">
         <v>74</v>
       </c>
       <c r="B153" s="20"/>
@@ -6563,7 +6562,7 @@
       <c r="K165" s="20"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A166" s="59" t="s">
+      <c r="A166" s="47" t="s">
         <v>75</v>
       </c>
       <c r="B166" s="20"/>
@@ -6829,7 +6828,7 @@
       <c r="K178" s="20"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A179" s="59" t="s">
+      <c r="A179" s="47" t="s">
         <v>76</v>
       </c>
       <c r="B179" s="20"/>
@@ -7095,7 +7094,7 @@
       <c r="K191" s="20"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A192" s="59" t="s">
+      <c r="A192" s="47" t="s">
         <v>77</v>
       </c>
       <c r="B192" s="20"/>
@@ -7363,7 +7362,7 @@
       <c r="K204" s="20"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A205" s="59" t="s">
+      <c r="A205" s="47" t="s">
         <v>79</v>
       </c>
       <c r="B205" s="20"/>
@@ -7633,7 +7632,7 @@
       <c r="K217" s="20"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A218" s="59" t="s">
+      <c r="A218" s="47" t="s">
         <v>80</v>
       </c>
       <c r="B218" s="20"/>
@@ -7901,7 +7900,7 @@
       <c r="K230" s="20"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A231" s="59" t="s">
+      <c r="A231" s="47" t="s">
         <v>81</v>
       </c>
       <c r="B231" s="20"/>
@@ -8191,7 +8190,7 @@
       <c r="K244" s="20"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A245" s="59" t="s">
+      <c r="A245" s="47" t="s">
         <v>82</v>
       </c>
       <c r="B245" s="20"/>
@@ -8463,7 +8462,7 @@
       <c r="K257" s="20"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A258" s="59" t="s">
+      <c r="A258" s="47" t="s">
         <v>83</v>
       </c>
       <c r="B258" s="20"/>
@@ -8729,7 +8728,7 @@
       <c r="K270" s="20"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A271" s="59" t="s">
+      <c r="A271" s="47" t="s">
         <v>93</v>
       </c>
       <c r="B271" s="20"/>
@@ -8999,7 +8998,7 @@
       <c r="K283" s="20"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A284" s="59" t="s">
+      <c r="A284" s="47" t="s">
         <v>94</v>
       </c>
       <c r="B284" s="20"/>
@@ -9265,7 +9264,7 @@
       <c r="K296" s="20"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A297" s="59" t="s">
+      <c r="A297" s="47" t="s">
         <v>95</v>
       </c>
       <c r="B297" s="20"/>
@@ -9531,7 +9530,7 @@
       <c r="K309" s="20"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A310" s="59" t="s">
+      <c r="A310" s="47" t="s">
         <v>96</v>
       </c>
       <c r="B310" s="20"/>
@@ -9701,15 +9700,17 @@
       <c r="B318" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C318" s="13"/>
+      <c r="C318" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D318" s="39">
         <v>5</v>
       </c>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G318" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
@@ -9723,15 +9724,17 @@
       <c r="B319" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C319" s="13"/>
+      <c r="C319" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D319" s="39">
         <v>5</v>
       </c>
       <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G319" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
@@ -9745,13 +9748,15 @@
         <v>43678</v>
       </c>
       <c r="B320" s="20"/>
-      <c r="C320" s="13"/>
+      <c r="C320" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G320" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
@@ -9765,13 +9770,15 @@
         <v>43709</v>
       </c>
       <c r="B321" s="20"/>
-      <c r="C321" s="13"/>
+      <c r="C321" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D321" s="39"/>
       <c r="E321" s="9"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G321" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H321" s="39"/>
       <c r="I321" s="9"/>
@@ -9783,13 +9790,15 @@
         <v>43739</v>
       </c>
       <c r="B322" s="20"/>
-      <c r="C322" s="13"/>
+      <c r="C322" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G322" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H322" s="39"/>
       <c r="I322" s="9"/>
@@ -9801,13 +9810,15 @@
         <v>43770</v>
       </c>
       <c r="B323" s="20"/>
-      <c r="C323" s="13"/>
+      <c r="C323" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D323" s="39"/>
       <c r="E323" s="9"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G323" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
@@ -9819,18 +9830,1300 @@
         <v>43800</v>
       </c>
       <c r="B324" s="15"/>
-      <c r="C324" s="41"/>
+      <c r="C324" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D324" s="42"/>
       <c r="E324" s="9"/>
       <c r="F324" s="15"/>
-      <c r="G324" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G324" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H324" s="42"/>
       <c r="I324" s="9"/>
       <c r="J324" s="12"/>
       <c r="K324" s="15"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B325" s="20"/>
+      <c r="C325" s="13"/>
+      <c r="D325" s="39"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="20"/>
+      <c r="G325" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H325" s="39"/>
+      <c r="I325" s="9"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="20"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="40">
+        <v>43831</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D326" s="39"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H326" s="39"/>
+      <c r="I326" s="9"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="20"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="40">
+        <v>43862</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D327" s="39"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H327" s="39"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="20"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="40">
+        <v>43891</v>
+      </c>
+      <c r="B328" s="20"/>
+      <c r="C328" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D328" s="39"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H328" s="39"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="20"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="40">
+        <v>43922</v>
+      </c>
+      <c r="B329" s="20"/>
+      <c r="C329" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D329" s="39"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H329" s="39"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="20"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="40">
+        <v>43952</v>
+      </c>
+      <c r="B330" s="20"/>
+      <c r="C330" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D330" s="39"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H330" s="39"/>
+      <c r="I330" s="9"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="20"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="40">
+        <v>43983</v>
+      </c>
+      <c r="B331" s="20"/>
+      <c r="C331" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D331" s="39"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H331" s="39"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="20"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" s="40">
+        <v>44013</v>
+      </c>
+      <c r="B332" s="20"/>
+      <c r="C332" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D332" s="39"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H332" s="39"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="20"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="40">
+        <v>44044</v>
+      </c>
+      <c r="B333" s="20"/>
+      <c r="C333" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D333" s="39"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H333" s="39"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="20"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="40">
+        <v>44075</v>
+      </c>
+      <c r="B334" s="20"/>
+      <c r="C334" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D334" s="39"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H334" s="39"/>
+      <c r="I334" s="9"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="20"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" s="40">
+        <v>44105</v>
+      </c>
+      <c r="B335" s="20"/>
+      <c r="C335" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D335" s="39"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H335" s="39"/>
+      <c r="I335" s="9"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="20"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" s="40">
+        <v>44136</v>
+      </c>
+      <c r="B336" s="20"/>
+      <c r="C336" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D336" s="39"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H336" s="39"/>
+      <c r="I336" s="9"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="20"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B337" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C337" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D337" s="39">
+        <v>5</v>
+      </c>
+      <c r="E337" s="9"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H337" s="39"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="20"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B338" s="20"/>
+      <c r="C338" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D338" s="39"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H338" s="39"/>
+      <c r="I338" s="9"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="20"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" s="40">
+        <v>44228</v>
+      </c>
+      <c r="B339" s="20"/>
+      <c r="C339" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D339" s="39"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H339" s="39"/>
+      <c r="I339" s="9"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="20"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="40">
+        <v>44256</v>
+      </c>
+      <c r="B340" s="20"/>
+      <c r="C340" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D340" s="39"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="20"/>
+      <c r="G340" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H340" s="39"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="20"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="40">
+        <v>44287</v>
+      </c>
+      <c r="B341" s="20"/>
+      <c r="C341" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D341" s="39"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H341" s="39"/>
+      <c r="I341" s="9"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="20"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="40">
+        <v>44317</v>
+      </c>
+      <c r="B342" s="20"/>
+      <c r="C342" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D342" s="39"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H342" s="39"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="20"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" s="40">
+        <v>44348</v>
+      </c>
+      <c r="B343" s="20"/>
+      <c r="C343" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D343" s="39"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H343" s="39"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="20"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="40">
+        <v>44378</v>
+      </c>
+      <c r="B344" s="20"/>
+      <c r="C344" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D344" s="39"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H344" s="39"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="20"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" s="40">
+        <v>44409</v>
+      </c>
+      <c r="B345" s="20"/>
+      <c r="C345" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D345" s="39"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="20"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" s="40">
+        <v>44440</v>
+      </c>
+      <c r="B346" s="20"/>
+      <c r="C346" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D346" s="39"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H346" s="39"/>
+      <c r="I346" s="9"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="20"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="40">
+        <v>44470</v>
+      </c>
+      <c r="B347" s="20"/>
+      <c r="C347" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D347" s="39"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H347" s="39"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="20"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="40">
+        <v>44501</v>
+      </c>
+      <c r="B348" s="20"/>
+      <c r="C348" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D348" s="39"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H348" s="39"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="20"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B349" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C349" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D349" s="39">
+        <v>5</v>
+      </c>
+      <c r="E349" s="9"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H349" s="39"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="20"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" s="40">
+        <v>44562</v>
+      </c>
+      <c r="B350" s="20"/>
+      <c r="C350" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D350" s="39"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H350" s="39"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="20"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B351" s="20"/>
+      <c r="C351" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D351" s="39"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H351" s="39"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="20"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B352" s="20"/>
+      <c r="C352" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D352" s="39"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H352" s="39"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="20"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B353" s="20"/>
+      <c r="C353" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D353" s="39"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H353" s="39"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="20"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B354" s="20"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D354" s="39"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H354" s="39"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B355" s="20"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D355" s="39"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H355" s="39"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B356" s="20"/>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D356" s="39"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H356" s="39"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D357" s="39"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H357" s="39"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D358" s="39"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H358" s="39"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D359" s="39"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H359" s="39"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B360" s="20"/>
+      <c r="C360" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D360" s="39"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H360" s="39"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B361" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C361" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D361" s="39">
+        <v>5</v>
+      </c>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H361" s="39"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D362" s="39"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H362" s="39"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D363" s="39"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H363" s="39"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="39"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="39"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="39"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="39"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="39"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B367" s="20"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="39"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="39"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B368" s="20"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="39"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="20"/>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="39"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="20"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B369" s="20"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="39"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="20"/>
+      <c r="G369" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H369" s="39"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="20"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B370" s="20"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="39"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H370" s="39"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="20"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B371" s="20"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="39"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="20"/>
+      <c r="G371" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H371" s="39"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="20"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B372" s="20"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="39"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="20"/>
+      <c r="G372" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H372" s="39"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="20"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B373" s="20"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="39"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="20"/>
+      <c r="G373" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H373" s="39"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="20"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B374" s="20"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="39"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="20"/>
+      <c r="G374" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H374" s="39"/>
+      <c r="I374" s="9"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="20"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B375" s="20"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="39"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="20"/>
+      <c r="G375" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H375" s="39"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="20"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376" s="40">
+        <v>45352</v>
+      </c>
+      <c r="B376" s="20"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="39"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="20"/>
+      <c r="G376" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H376" s="39"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="20"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377" s="40">
+        <v>45383</v>
+      </c>
+      <c r="B377" s="20"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="39"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="20"/>
+      <c r="G377" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H377" s="39"/>
+      <c r="I377" s="9"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="20"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A378" s="40">
+        <v>45413</v>
+      </c>
+      <c r="B378" s="20"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="39"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="20"/>
+      <c r="G378" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H378" s="39"/>
+      <c r="I378" s="9"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="20"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="40">
+        <v>45444</v>
+      </c>
+      <c r="B379" s="20"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="39"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="20"/>
+      <c r="G379" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H379" s="39"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="20"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380" s="40">
+        <v>45474</v>
+      </c>
+      <c r="B380" s="20"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="39"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="20"/>
+      <c r="G380" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H380" s="39"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="20"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" s="40">
+        <v>45505</v>
+      </c>
+      <c r="B381" s="20"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="39"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="20"/>
+      <c r="G381" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H381" s="39"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="20"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" s="40">
+        <v>45536</v>
+      </c>
+      <c r="B382" s="20"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="39"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H382" s="39"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="20"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" s="40">
+        <v>45566</v>
+      </c>
+      <c r="B383" s="20"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="39"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="20"/>
+      <c r="G383" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H383" s="39"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="20"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" s="40">
+        <v>45597</v>
+      </c>
+      <c r="B384" s="20"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="39"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H384" s="39"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="20"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A385" s="40"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="39"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H385" s="39"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="20"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386" s="40"/>
+      <c r="B386" s="20"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="39"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H386" s="39"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="20"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387" s="40"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="39"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H387" s="39"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="20"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A388" s="40"/>
+      <c r="B388" s="20"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="39"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H388" s="39"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="20"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A389" s="40"/>
+      <c r="B389" s="20"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="39"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H389" s="39"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A390" s="40"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="39"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H390" s="39"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="20"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A391" s="63"/>
+      <c r="B391" s="15"/>
+      <c r="C391" s="41"/>
+      <c r="D391" s="42"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="15"/>
+      <c r="G391" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H391" s="42"/>
+      <c r="I391" s="9"/>
+      <c r="J391" s="12"/>
+      <c r="K391" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9847,10 +11140,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9873,7 +11166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -9896,17 +11189,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -9987,12 +11280,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/PELLO, EMILMA.xlsx
+++ b/REGULAR/PELLO, EMILMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02D0669-611E-4462-8022-8E23E3A607A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06BCDC1-41B6-4AB2-86FE-D49EB2720718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>2020</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -728,6 +731,9 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,9 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2750,7 +2753,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K391" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K392" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3128,12 +3131,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K391"/>
+  <dimension ref="A2:K392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A314" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A354" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="D314" sqref="D314"/>
+      <selection pane="bottomLeft" activeCell="C367" sqref="C367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3155,58 +3158,58 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="57"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="58"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="59"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3232,18 +3235,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3290,7 +3293,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>219.809</v>
+        <v>221.059</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3300,7 +3303,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>410</v>
+        <v>411.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -10596,19 +10599,17 @@
       <c r="K361" s="20"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A362" s="40">
-        <v>44927</v>
+      <c r="A362" s="47" t="s">
+        <v>103</v>
       </c>
       <c r="B362" s="20"/>
-      <c r="C362" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C362" s="13"/>
       <c r="D362" s="39"/>
       <c r="E362" s="9"/>
       <c r="F362" s="20"/>
-      <c r="G362" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H362" s="39"/>
       <c r="I362" s="9"/>
@@ -10617,7 +10618,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B363" s="20"/>
       <c r="C363" s="13">
@@ -10637,16 +10638,18 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
+      <c r="C364" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D364" s="39"/>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G364" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H364" s="39"/>
       <c r="I364" s="9"/>
@@ -10655,16 +10658,18 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B365" s="20"/>
-      <c r="C365" s="13"/>
+      <c r="C365" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D365" s="39"/>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G365" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H365" s="39"/>
       <c r="I365" s="9"/>
@@ -10673,7 +10678,7 @@
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -10691,7 +10696,7 @@
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -10709,7 +10714,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -10727,7 +10732,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -10745,7 +10750,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10763,7 +10768,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -10781,7 +10786,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10799,7 +10804,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10817,7 +10822,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10835,7 +10840,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10853,7 +10858,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -10871,7 +10876,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -10889,7 +10894,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -10907,7 +10912,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -10925,7 +10930,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -10943,7 +10948,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -10961,7 +10966,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -10979,7 +10984,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -10997,7 +11002,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11014,7 +11019,9 @@
       <c r="K384" s="20"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A385" s="40"/>
+      <c r="A385" s="40">
+        <v>45597</v>
+      </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
       <c r="D385" s="39"/>
@@ -11110,20 +11117,36 @@
       <c r="K390" s="20"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A391" s="63"/>
-      <c r="B391" s="15"/>
-      <c r="C391" s="41"/>
-      <c r="D391" s="42"/>
+      <c r="A391" s="40"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="39"/>
       <c r="E391" s="9"/>
-      <c r="F391" s="15"/>
-      <c r="G391" s="41" t="str">
+      <c r="F391" s="20"/>
+      <c r="G391" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H391" s="42"/>
+      <c r="H391" s="39"/>
       <c r="I391" s="9"/>
-      <c r="J391" s="12"/>
-      <c r="K391" s="15"/>
+      <c r="J391" s="11"/>
+      <c r="K391" s="20"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A392" s="51"/>
+      <c r="B392" s="15"/>
+      <c r="C392" s="41"/>
+      <c r="D392" s="42"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="15"/>
+      <c r="G392" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H392" s="42"/>
+      <c r="I392" s="9"/>
+      <c r="J392" s="12"/>
+      <c r="K392" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11189,17 +11212,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="J1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="J1" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -11280,12 +11303,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/PELLO, EMILMA.xlsx
+++ b/REGULAR/PELLO, EMILMA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06BCDC1-41B6-4AB2-86FE-D49EB2720718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
   <si>
     <t>PERIOD</t>
   </si>
@@ -348,11 +347,23 @@
   <si>
     <t>2023</t>
   </si>
+  <si>
+    <t>7/5-7/2023</t>
+  </si>
+  <si>
+    <t>7/10-14/2023</t>
+  </si>
+  <si>
+    <t>VL(9-0-0)</t>
+  </si>
+  <si>
+    <t>7/17-21,24-27/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1218,7 +1229,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1261,7 +1272,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1336,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1396,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1451,7 +1462,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +1525,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1623,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,7 +1682,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1747,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1790,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1854,7 +1865,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2051,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2106,7 +2117,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2175,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2241,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2286,7 +2297,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2372,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2404,7 +2415,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2470,7 +2481,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2526,7 +2537,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2635,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2687,7 +2698,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2753,25 +2764,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K392" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K394" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2783,13 +2794,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2798,14 +2809,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3109,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3119,7 +3130,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3127,34 +3138,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K392"/>
+  <dimension ref="A2:K394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A354" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A354" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="E9:I9"/>
-      <selection pane="bottomLeft" activeCell="C367" sqref="C367"/>
+      <selection pane="bottomLeft" activeCell="B370" sqref="B370"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3175,7 +3186,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3193,7 +3204,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3211,7 +3222,7 @@
       <c r="J4" s="58"/>
       <c r="K4" s="59"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3219,7 +3230,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3232,7 +3243,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -3249,7 +3260,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3284,7 +3295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3293,7 +3304,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>221.059</v>
+        <v>208.309</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3303,12 +3314,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>411.25</v>
+        <v>412.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -3330,7 +3341,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35065</v>
       </c>
@@ -3350,7 +3361,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35096</v>
       </c>
@@ -3370,7 +3381,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35125</v>
       </c>
@@ -3390,7 +3401,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35156</v>
       </c>
@@ -3410,7 +3421,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35186</v>
       </c>
@@ -3430,7 +3441,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35217</v>
       </c>
@@ -3450,7 +3461,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35247</v>
       </c>
@@ -3470,7 +3481,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>35278</v>
       </c>
@@ -3490,7 +3501,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35309</v>
       </c>
@@ -3510,7 +3521,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35339</v>
       </c>
@@ -3530,7 +3541,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35370</v>
       </c>
@@ -3550,7 +3561,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35400</v>
       </c>
@@ -3574,7 +3585,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>45</v>
       </c>
@@ -3596,7 +3607,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35431</v>
       </c>
@@ -3616,7 +3627,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35462</v>
       </c>
@@ -3636,7 +3647,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35490</v>
       </c>
@@ -3656,7 +3667,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35521</v>
       </c>
@@ -3676,7 +3687,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35551</v>
       </c>
@@ -3696,7 +3707,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35582</v>
       </c>
@@ -3716,7 +3727,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35612</v>
       </c>
@@ -3736,7 +3747,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35643</v>
       </c>
@@ -3756,7 +3767,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35674</v>
       </c>
@@ -3776,7 +3787,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35704</v>
       </c>
@@ -3796,7 +3807,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35735</v>
       </c>
@@ -3816,7 +3827,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35765</v>
       </c>
@@ -3840,7 +3851,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>46</v>
       </c>
@@ -3862,7 +3873,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35796</v>
       </c>
@@ -3882,7 +3893,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>35827</v>
       </c>
@@ -3902,7 +3913,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35855</v>
       </c>
@@ -3922,7 +3933,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35886</v>
       </c>
@@ -3948,7 +3959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>35916</v>
       </c>
@@ -3968,7 +3979,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>35947</v>
       </c>
@@ -3988,7 +3999,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35977</v>
       </c>
@@ -4008,7 +4019,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36008</v>
       </c>
@@ -4028,7 +4039,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36039</v>
       </c>
@@ -4048,7 +4059,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36069</v>
       </c>
@@ -4068,7 +4079,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36100</v>
       </c>
@@ -4088,7 +4099,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36130</v>
       </c>
@@ -4112,7 +4123,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>43</v>
       </c>
@@ -4134,7 +4145,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36161</v>
       </c>
@@ -4154,7 +4165,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36192</v>
       </c>
@@ -4174,7 +4185,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>36220</v>
       </c>
@@ -4194,7 +4205,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36251</v>
       </c>
@@ -4214,7 +4225,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36281</v>
       </c>
@@ -4234,7 +4245,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36312</v>
       </c>
@@ -4254,7 +4265,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36342</v>
       </c>
@@ -4274,7 +4285,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36373</v>
       </c>
@@ -4300,7 +4311,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36404</v>
       </c>
@@ -4320,7 +4331,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36434</v>
       </c>
@@ -4340,7 +4351,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36465</v>
       </c>
@@ -4360,7 +4371,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36495</v>
       </c>
@@ -4380,7 +4391,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>51</v>
       </c>
@@ -4402,7 +4413,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36526</v>
       </c>
@@ -4422,7 +4433,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36557</v>
       </c>
@@ -4442,7 +4453,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36586</v>
       </c>
@@ -4462,7 +4473,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36617</v>
       </c>
@@ -4482,7 +4493,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36647</v>
       </c>
@@ -4502,7 +4513,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36678</v>
       </c>
@@ -4522,7 +4533,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>36708</v>
       </c>
@@ -4542,7 +4553,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36739</v>
       </c>
@@ -4562,7 +4573,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36770</v>
       </c>
@@ -4582,7 +4593,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36800</v>
       </c>
@@ -4602,7 +4613,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36831</v>
       </c>
@@ -4622,7 +4633,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>36861</v>
       </c>
@@ -4646,7 +4657,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>52</v>
       </c>
@@ -4668,7 +4679,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36892</v>
       </c>
@@ -4688,7 +4699,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>36923</v>
       </c>
@@ -4708,7 +4719,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>36951</v>
       </c>
@@ -4728,7 +4739,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36982</v>
       </c>
@@ -4748,7 +4759,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37012</v>
       </c>
@@ -4768,7 +4779,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37043</v>
       </c>
@@ -4788,7 +4799,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37073</v>
       </c>
@@ -4808,7 +4819,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37104</v>
       </c>
@@ -4828,7 +4839,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37135</v>
       </c>
@@ -4848,7 +4859,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37165</v>
       </c>
@@ -4868,7 +4879,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37196</v>
       </c>
@@ -4888,7 +4899,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37226</v>
       </c>
@@ -4912,7 +4923,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="47" t="s">
         <v>53</v>
       </c>
@@ -4934,7 +4945,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37257</v>
       </c>
@@ -4954,7 +4965,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37288</v>
       </c>
@@ -4974,7 +4985,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37316</v>
       </c>
@@ -4994,7 +5005,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37347</v>
       </c>
@@ -5014,7 +5025,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37377</v>
       </c>
@@ -5034,7 +5045,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37408</v>
       </c>
@@ -5054,7 +5065,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37438</v>
       </c>
@@ -5074,7 +5085,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37469</v>
       </c>
@@ -5094,7 +5105,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37500</v>
       </c>
@@ -5114,7 +5125,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37530</v>
       </c>
@@ -5134,7 +5145,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37561</v>
       </c>
@@ -5160,7 +5171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37591</v>
       </c>
@@ -5180,7 +5191,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="47" t="s">
         <v>54</v>
       </c>
@@ -5202,7 +5213,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37622</v>
       </c>
@@ -5222,7 +5233,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37653</v>
       </c>
@@ -5242,7 +5253,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37681</v>
       </c>
@@ -5262,7 +5273,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37712</v>
       </c>
@@ -5282,7 +5293,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37742</v>
       </c>
@@ -5302,7 +5313,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37773</v>
       </c>
@@ -5322,7 +5333,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37803</v>
       </c>
@@ -5342,7 +5353,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37834</v>
       </c>
@@ -5362,7 +5373,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37865</v>
       </c>
@@ -5382,7 +5393,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37895</v>
       </c>
@@ -5402,7 +5413,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37926</v>
       </c>
@@ -5422,7 +5433,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37956</v>
       </c>
@@ -5446,7 +5457,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>58</v>
       </c>
@@ -5468,7 +5479,7 @@
       <c r="J114" s="2"/>
       <c r="K114" s="48"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37987</v>
       </c>
@@ -5488,7 +5499,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38018</v>
       </c>
@@ -5508,7 +5519,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>38047</v>
       </c>
@@ -5528,7 +5539,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>38078</v>
       </c>
@@ -5554,7 +5565,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38108</v>
       </c>
@@ -5574,7 +5585,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38139</v>
       </c>
@@ -5594,7 +5605,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38169</v>
       </c>
@@ -5614,7 +5625,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>38200</v>
       </c>
@@ -5634,7 +5645,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38231</v>
       </c>
@@ -5654,7 +5665,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>38261</v>
       </c>
@@ -5674,7 +5685,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38292</v>
       </c>
@@ -5694,7 +5705,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38322</v>
       </c>
@@ -5718,7 +5729,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>59</v>
       </c>
@@ -5740,7 +5751,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38353</v>
       </c>
@@ -5764,7 +5775,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38384</v>
       </c>
@@ -5788,7 +5799,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38412</v>
       </c>
@@ -5812,7 +5823,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38443</v>
       </c>
@@ -5836,7 +5847,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38473</v>
       </c>
@@ -5860,7 +5871,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38504</v>
       </c>
@@ -5884,7 +5895,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38534</v>
       </c>
@@ -5908,7 +5919,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38565</v>
       </c>
@@ -5932,7 +5943,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38596</v>
       </c>
@@ -5956,7 +5967,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38626</v>
       </c>
@@ -5980,7 +5991,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38657</v>
       </c>
@@ -6008,7 +6019,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38687</v>
       </c>
@@ -6032,7 +6043,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="47" t="s">
         <v>60</v>
       </c>
@@ -6054,7 +6065,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38718</v>
       </c>
@@ -6074,7 +6085,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38749</v>
       </c>
@@ -6094,7 +6105,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38777</v>
       </c>
@@ -6114,7 +6125,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38808</v>
       </c>
@@ -6134,7 +6145,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38838</v>
       </c>
@@ -6154,7 +6165,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38869</v>
       </c>
@@ -6174,7 +6185,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38899</v>
       </c>
@@ -6194,7 +6205,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38930</v>
       </c>
@@ -6214,7 +6225,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38961</v>
       </c>
@@ -6234,7 +6245,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38991</v>
       </c>
@@ -6254,7 +6265,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>39022</v>
       </c>
@@ -6274,7 +6285,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>39052</v>
       </c>
@@ -6298,7 +6309,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="47" t="s">
         <v>74</v>
       </c>
@@ -6320,7 +6331,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>39083</v>
       </c>
@@ -6340,7 +6351,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>39114</v>
       </c>
@@ -6360,7 +6371,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39142</v>
       </c>
@@ -6380,7 +6391,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>39173</v>
       </c>
@@ -6400,7 +6411,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>39203</v>
       </c>
@@ -6420,7 +6431,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>39234</v>
       </c>
@@ -6440,7 +6451,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>39264</v>
       </c>
@@ -6460,7 +6471,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>39295</v>
       </c>
@@ -6480,7 +6491,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>39326</v>
       </c>
@@ -6500,7 +6511,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>39356</v>
       </c>
@@ -6520,7 +6531,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>39387</v>
       </c>
@@ -6540,7 +6551,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>39417</v>
       </c>
@@ -6564,7 +6575,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="47" t="s">
         <v>75</v>
       </c>
@@ -6586,7 +6597,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39448</v>
       </c>
@@ -6606,7 +6617,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>39479</v>
       </c>
@@ -6626,7 +6637,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>39508</v>
       </c>
@@ -6646,7 +6657,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39539</v>
       </c>
@@ -6666,7 +6677,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>39569</v>
       </c>
@@ -6686,7 +6697,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39600</v>
       </c>
@@ -6706,7 +6717,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>39630</v>
       </c>
@@ -6726,7 +6737,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39661</v>
       </c>
@@ -6746,7 +6757,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39692</v>
       </c>
@@ -6766,7 +6777,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39722</v>
       </c>
@@ -6786,7 +6797,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39753</v>
       </c>
@@ -6806,7 +6817,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39783</v>
       </c>
@@ -6830,7 +6841,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="47" t="s">
         <v>76</v>
       </c>
@@ -6852,7 +6863,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>39814</v>
       </c>
@@ -6872,7 +6883,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>39845</v>
       </c>
@@ -6892,7 +6903,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39873</v>
       </c>
@@ -6912,7 +6923,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>39904</v>
       </c>
@@ -6936,7 +6947,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39934</v>
       </c>
@@ -6956,7 +6967,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39965</v>
       </c>
@@ -6976,7 +6987,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39995</v>
       </c>
@@ -6996,7 +7007,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>40026</v>
       </c>
@@ -7016,7 +7027,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>40057</v>
       </c>
@@ -7036,7 +7047,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>40087</v>
       </c>
@@ -7056,7 +7067,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>40118</v>
       </c>
@@ -7076,7 +7087,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>40148</v>
       </c>
@@ -7096,7 +7107,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="47" t="s">
         <v>77</v>
       </c>
@@ -7118,7 +7129,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>40179</v>
       </c>
@@ -7138,7 +7149,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>40210</v>
       </c>
@@ -7158,7 +7169,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>40238</v>
       </c>
@@ -7178,7 +7189,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>40269</v>
       </c>
@@ -7198,7 +7209,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>40299</v>
       </c>
@@ -7218,7 +7229,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>40330</v>
       </c>
@@ -7238,7 +7249,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>40360</v>
       </c>
@@ -7258,7 +7269,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>40391</v>
       </c>
@@ -7278,7 +7289,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>40422</v>
       </c>
@@ -7298,7 +7309,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>40452</v>
       </c>
@@ -7322,7 +7333,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40483</v>
       </c>
@@ -7342,7 +7353,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40513</v>
       </c>
@@ -7364,7 +7375,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
         <v>79</v>
       </c>
@@ -7386,7 +7397,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>40544</v>
       </c>
@@ -7406,7 +7417,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40575</v>
       </c>
@@ -7426,7 +7437,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>40603</v>
       </c>
@@ -7450,7 +7461,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40634</v>
       </c>
@@ -7470,7 +7481,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>40664</v>
       </c>
@@ -7490,7 +7501,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>40695</v>
       </c>
@@ -7514,7 +7525,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>40725</v>
       </c>
@@ -7534,7 +7545,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>40756</v>
       </c>
@@ -7554,7 +7565,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>40787</v>
       </c>
@@ -7574,7 +7585,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>40817</v>
       </c>
@@ -7594,7 +7605,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>40848</v>
       </c>
@@ -7614,7 +7625,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>40878</v>
       </c>
@@ -7634,7 +7645,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="47" t="s">
         <v>80</v>
       </c>
@@ -7656,7 +7667,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>40909</v>
       </c>
@@ -7676,7 +7687,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>40940</v>
       </c>
@@ -7696,7 +7707,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>40969</v>
       </c>
@@ -7722,7 +7733,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>41000</v>
       </c>
@@ -7742,7 +7753,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>41030</v>
       </c>
@@ -7762,7 +7773,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>41061</v>
       </c>
@@ -7782,7 +7793,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>41091</v>
       </c>
@@ -7802,7 +7813,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>41122</v>
       </c>
@@ -7822,7 +7833,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>41153</v>
       </c>
@@ -7842,7 +7853,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>41183</v>
       </c>
@@ -7862,7 +7873,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>41214</v>
       </c>
@@ -7882,7 +7893,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>41244</v>
       </c>
@@ -7902,7 +7913,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="47" t="s">
         <v>81</v>
       </c>
@@ -7924,7 +7935,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>41275</v>
       </c>
@@ -7944,7 +7955,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>41306</v>
       </c>
@@ -7964,7 +7975,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>41334</v>
       </c>
@@ -7984,7 +7995,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>41365</v>
       </c>
@@ -8004,7 +8015,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>41395</v>
       </c>
@@ -8024,7 +8035,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>41426</v>
       </c>
@@ -8044,7 +8055,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41456</v>
       </c>
@@ -8064,7 +8075,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>41487</v>
       </c>
@@ -8084,7 +8095,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41518</v>
       </c>
@@ -8110,7 +8121,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>48</v>
@@ -8132,7 +8143,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41548</v>
       </c>
@@ -8152,7 +8163,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41579</v>
       </c>
@@ -8172,7 +8183,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41609</v>
       </c>
@@ -8192,7 +8203,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="47" t="s">
         <v>82</v>
       </c>
@@ -8214,7 +8225,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41640</v>
       </c>
@@ -8234,7 +8245,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>41671</v>
       </c>
@@ -8258,7 +8269,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41699</v>
       </c>
@@ -8284,7 +8295,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41730</v>
       </c>
@@ -8304,7 +8315,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41760</v>
       </c>
@@ -8324,7 +8335,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>41791</v>
       </c>
@@ -8344,7 +8355,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>41821</v>
       </c>
@@ -8364,7 +8375,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41852</v>
       </c>
@@ -8384,7 +8395,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41883</v>
       </c>
@@ -8404,7 +8415,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>41913</v>
       </c>
@@ -8424,7 +8435,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41944</v>
       </c>
@@ -8444,7 +8455,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>41974</v>
       </c>
@@ -8464,7 +8475,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="47" t="s">
         <v>83</v>
       </c>
@@ -8486,7 +8497,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>42005</v>
       </c>
@@ -8506,7 +8517,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>42036</v>
       </c>
@@ -8526,7 +8537,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>42064</v>
       </c>
@@ -8546,7 +8557,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>42095</v>
       </c>
@@ -8566,7 +8577,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>42125</v>
       </c>
@@ -8586,7 +8597,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>42156</v>
       </c>
@@ -8606,7 +8617,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>42186</v>
       </c>
@@ -8626,7 +8637,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>42217</v>
       </c>
@@ -8646,7 +8657,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>42248</v>
       </c>
@@ -8666,7 +8677,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>42278</v>
       </c>
@@ -8686,7 +8697,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>42309</v>
       </c>
@@ -8706,7 +8717,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>42339</v>
       </c>
@@ -8730,7 +8741,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="47" t="s">
         <v>93</v>
       </c>
@@ -8752,7 +8763,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>42370</v>
       </c>
@@ -8772,7 +8783,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>42401</v>
       </c>
@@ -8792,7 +8803,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>42430</v>
       </c>
@@ -8812,7 +8823,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>42461</v>
       </c>
@@ -8832,7 +8843,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>42491</v>
       </c>
@@ -8856,7 +8867,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42522</v>
       </c>
@@ -8876,7 +8887,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>42552</v>
       </c>
@@ -8896,7 +8907,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42583</v>
       </c>
@@ -8916,7 +8927,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42614</v>
       </c>
@@ -8936,7 +8947,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>42644</v>
       </c>
@@ -8956,7 +8967,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42675</v>
       </c>
@@ -8976,7 +8987,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>42705</v>
       </c>
@@ -9000,7 +9011,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="47" t="s">
         <v>94</v>
       </c>
@@ -9022,7 +9033,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>42736</v>
       </c>
@@ -9042,7 +9053,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>42767</v>
       </c>
@@ -9062,7 +9073,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42795</v>
       </c>
@@ -9082,7 +9093,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42826</v>
       </c>
@@ -9102,7 +9113,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42856</v>
       </c>
@@ -9122,7 +9133,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42887</v>
       </c>
@@ -9142,7 +9153,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42917</v>
       </c>
@@ -9162,7 +9173,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42948</v>
       </c>
@@ -9182,7 +9193,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42979</v>
       </c>
@@ -9202,7 +9213,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>43009</v>
       </c>
@@ -9222,7 +9233,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>43040</v>
       </c>
@@ -9242,7 +9253,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>43070</v>
       </c>
@@ -9266,7 +9277,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="47" t="s">
         <v>95</v>
       </c>
@@ -9288,7 +9299,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>43101</v>
       </c>
@@ -9308,7 +9319,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>43132</v>
       </c>
@@ -9328,7 +9339,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>43160</v>
       </c>
@@ -9348,7 +9359,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>43191</v>
       </c>
@@ -9368,7 +9379,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>43221</v>
       </c>
@@ -9388,7 +9399,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>43252</v>
       </c>
@@ -9408,7 +9419,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>43282</v>
       </c>
@@ -9428,7 +9439,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>43313</v>
       </c>
@@ -9448,7 +9459,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>43344</v>
       </c>
@@ -9468,7 +9479,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>43374</v>
       </c>
@@ -9488,7 +9499,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>43405</v>
       </c>
@@ -9508,7 +9519,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>43435</v>
       </c>
@@ -9532,7 +9543,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="47" t="s">
         <v>96</v>
       </c>
@@ -9554,7 +9565,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>43466</v>
       </c>
@@ -9574,7 +9585,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>43497</v>
       </c>
@@ -9594,7 +9605,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>43525</v>
       </c>
@@ -9614,7 +9625,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>43556</v>
       </c>
@@ -9634,7 +9645,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43586</v>
       </c>
@@ -9654,7 +9665,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43617</v>
       </c>
@@ -9674,7 +9685,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43647</v>
       </c>
@@ -9698,7 +9709,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>55</v>
@@ -9722,7 +9733,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>55</v>
@@ -9746,7 +9757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43678</v>
       </c>
@@ -9768,7 +9779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43709</v>
       </c>
@@ -9788,7 +9799,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43739</v>
       </c>
@@ -9808,7 +9819,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43770</v>
       </c>
@@ -9828,7 +9839,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43800</v>
       </c>
@@ -9848,7 +9859,7 @@
       <c r="J324" s="12"/>
       <c r="K324" s="15"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="47" t="s">
         <v>102</v>
       </c>
@@ -9866,7 +9877,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43831</v>
       </c>
@@ -9886,7 +9897,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43862</v>
       </c>
@@ -9906,7 +9917,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43891</v>
       </c>
@@ -9926,7 +9937,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43922</v>
       </c>
@@ -9946,7 +9957,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43952</v>
       </c>
@@ -9966,7 +9977,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>43983</v>
       </c>
@@ -9986,7 +9997,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>44013</v>
       </c>
@@ -10006,7 +10017,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>44044</v>
       </c>
@@ -10026,7 +10037,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>44075</v>
       </c>
@@ -10046,7 +10057,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>44105</v>
       </c>
@@ -10066,7 +10077,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>44136</v>
       </c>
@@ -10086,7 +10097,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>44166</v>
       </c>
@@ -10110,7 +10121,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>44197</v>
       </c>
@@ -10130,7 +10141,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>44228</v>
       </c>
@@ -10150,7 +10161,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>44256</v>
       </c>
@@ -10170,7 +10181,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>44287</v>
       </c>
@@ -10190,7 +10201,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>44317</v>
       </c>
@@ -10210,7 +10221,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>44348</v>
       </c>
@@ -10230,7 +10241,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>44378</v>
       </c>
@@ -10250,7 +10261,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>44409</v>
       </c>
@@ -10270,7 +10281,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>44440</v>
       </c>
@@ -10290,7 +10301,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>44470</v>
       </c>
@@ -10310,7 +10321,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>44501</v>
       </c>
@@ -10330,7 +10341,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>44531</v>
       </c>
@@ -10354,7 +10365,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>44562</v>
       </c>
@@ -10374,7 +10385,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44593</v>
       </c>
@@ -10394,7 +10405,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44621</v>
       </c>
@@ -10414,7 +10425,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44652</v>
       </c>
@@ -10434,7 +10445,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44682</v>
       </c>
@@ -10454,7 +10465,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44713</v>
       </c>
@@ -10474,7 +10485,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44743</v>
       </c>
@@ -10494,7 +10505,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>44774</v>
       </c>
@@ -10514,7 +10525,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44805</v>
       </c>
@@ -10534,7 +10545,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44835</v>
       </c>
@@ -10554,7 +10565,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44866</v>
       </c>
@@ -10574,7 +10585,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44896</v>
       </c>
@@ -10598,7 +10609,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="47" t="s">
         <v>103</v>
       </c>
@@ -10616,7 +10627,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44927</v>
       </c>
@@ -10636,7 +10647,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44958</v>
       </c>
@@ -10656,7 +10667,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44986</v>
       </c>
@@ -10676,29 +10687,33 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>45017</v>
       </c>
       <c r="B366" s="20"/>
-      <c r="C366" s="13"/>
+      <c r="C366" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D366" s="39"/>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
-      <c r="G366" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G366" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>45047</v>
       </c>
-      <c r="B367" s="20"/>
+      <c r="B367" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C367" s="13"/>
       <c r="D367" s="39"/>
       <c r="E367" s="9"/>
@@ -10710,15 +10725,19 @@
       <c r="H367" s="39"/>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
-      <c r="K367" s="20"/>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A368" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B368" s="20"/>
+      <c r="K367" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="40"/>
+      <c r="B368" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C368" s="13"/>
-      <c r="D368" s="39"/>
+      <c r="D368" s="39">
+        <v>5</v>
+      </c>
       <c r="E368" s="9"/>
       <c r="F368" s="20"/>
       <c r="G368" s="13" t="str">
@@ -10728,15 +10747,19 @@
       <c r="H368" s="39"/>
       <c r="I368" s="9"/>
       <c r="J368" s="11"/>
-      <c r="K368" s="20"/>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A369" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B369" s="20"/>
+      <c r="K368" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="40"/>
+      <c r="B369" s="20" t="s">
+        <v>106</v>
+      </c>
       <c r="C369" s="13"/>
-      <c r="D369" s="39"/>
+      <c r="D369" s="39">
+        <v>9</v>
+      </c>
       <c r="E369" s="9"/>
       <c r="F369" s="20"/>
       <c r="G369" s="13" t="str">
@@ -10746,11 +10769,13 @@
       <c r="H369" s="39"/>
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
-      <c r="K369" s="20"/>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K369" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10766,9 +10791,9 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -10784,9 +10809,9 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10802,9 +10827,9 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10820,9 +10845,9 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10838,9 +10863,9 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10856,9 +10881,9 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -10874,9 +10899,9 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -10892,9 +10917,9 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -10910,9 +10935,9 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -10928,9 +10953,9 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -10946,9 +10971,9 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -10964,9 +10989,9 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -10982,9 +11007,9 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11000,9 +11025,9 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11018,9 +11043,9 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11036,8 +11061,10 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A386" s="40"/>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="40">
+        <v>45566</v>
+      </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
       <c r="D386" s="39"/>
@@ -11052,8 +11079,10 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A387" s="40"/>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="40">
+        <v>45597</v>
+      </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
       <c r="D387" s="39"/>
@@ -11068,7 +11097,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -11084,7 +11113,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -11100,7 +11129,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -11116,7 +11145,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -11132,21 +11161,53 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A392" s="51"/>
-      <c r="B392" s="15"/>
-      <c r="C392" s="41"/>
-      <c r="D392" s="42"/>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="40"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="13"/>
+      <c r="D392" s="39"/>
       <c r="E392" s="9"/>
-      <c r="F392" s="15"/>
-      <c r="G392" s="41" t="str">
+      <c r="F392" s="20"/>
+      <c r="G392" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H392" s="42"/>
+      <c r="H392" s="39"/>
       <c r="I392" s="9"/>
-      <c r="J392" s="12"/>
-      <c r="K392" s="15"/>
+      <c r="J392" s="11"/>
+      <c r="K392" s="20"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A393" s="40"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="39"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H393" s="39"/>
+      <c r="I393" s="9"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="20"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A394" s="51"/>
+      <c r="B394" s="15"/>
+      <c r="C394" s="41"/>
+      <c r="D394" s="42"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="15"/>
+      <c r="G394" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H394" s="42"/>
+      <c r="I394" s="9"/>
+      <c r="J394" s="12"/>
+      <c r="K394" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -11163,10 +11224,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11189,7 +11250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11197,21 +11258,21 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -11224,7 +11285,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11253,7 +11314,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11279,17 +11340,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11310,7 +11371,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11337,7 +11398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11363,7 +11424,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11389,7 +11450,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11415,7 +11476,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11441,7 +11502,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11467,7 +11528,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11493,7 +11554,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11519,7 +11580,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11539,7 +11600,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11559,7 +11620,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11579,7 +11640,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11600,7 +11661,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11621,7 +11682,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11642,7 +11703,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11663,7 +11724,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11684,7 +11745,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11705,7 +11766,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11726,7 +11787,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11747,7 +11808,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11768,7 +11829,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11789,7 +11850,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11810,7 +11871,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11831,7 +11892,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11852,7 +11913,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11873,7 +11934,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -11894,7 +11955,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -11915,7 +11976,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -11936,7 +11997,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -11957,7 +12018,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -11978,7 +12039,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11999,7 +12060,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12008,7 +12069,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12017,7 +12078,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12026,7 +12087,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12035,7 +12096,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12044,7 +12105,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12053,7 +12114,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12062,7 +12123,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12071,7 +12132,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12080,7 +12141,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12089,7 +12150,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12098,7 +12159,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12107,7 +12168,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12116,7 +12177,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12125,7 +12186,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12134,7 +12195,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12143,7 +12204,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12152,7 +12213,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12161,7 +12222,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12170,7 +12231,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12179,7 +12240,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12188,7 +12249,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12197,7 +12258,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12206,7 +12267,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12215,7 +12276,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12224,7 +12285,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12233,7 +12294,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12242,7 +12303,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12251,7 +12312,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12260,7 +12321,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
